--- a/planning.xlsx
+++ b/planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>week1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>engineer9</t>
+  </si>
+  <si>
+    <t>Project1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,7 +469,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -519,6 +523,9 @@
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
